--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="FLOWMAPPER" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
     <sheet name="SignInPage" sheetId="3" r:id="rId3"/>
+    <sheet name="FlightBookingPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="139">
   <si>
     <t>TCID</t>
   </si>
@@ -69,19 +70,67 @@
     <t>BOOKFLIGHT_001</t>
   </si>
   <si>
-    <t>register to book flight ticket</t>
+    <t>register to book flight ticket for existing user</t>
   </si>
   <si>
     <t>no-check</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SignInPageTest_001</t>
+  </si>
+  <si>
+    <t>FlightBookingPageTest_001</t>
+  </si>
+  <si>
+    <t>BOOKFLIGHT_002</t>
+  </si>
+  <si>
+    <t>register to book flight ticket for new user</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>RegisterPageTest_001</t>
   </si>
   <si>
-    <t>SignInPageTest_001</t>
+    <t>BOOKFLIGHT_003</t>
+  </si>
+  <si>
+    <t>register to book flight ticket for new user with duplicate user name and password</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>BOOKFLIGHT_004</t>
+  </si>
+  <si>
+    <t>register to book flight ticket for new user with round type trip</t>
+  </si>
+  <si>
+    <t>FlightBookingPageTest_002</t>
+  </si>
+  <si>
+    <t>BOOKFLIGHT_005</t>
+  </si>
+  <si>
+    <t>register to book flight ticket for new user with multiple passenger</t>
+  </si>
+  <si>
+    <t>FlightBookingPageTest_003</t>
+  </si>
+  <si>
+    <t>BOOKFLIGHT_006</t>
+  </si>
+  <si>
+    <t>register to book flight ticket and  validate the price of selected flight</t>
+  </si>
+  <si>
+    <t>FlightBookingPageTest_004</t>
   </si>
   <si>
     <t>Action</t>
@@ -123,19 +172,79 @@
     <t>password</t>
   </si>
   <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>register positive flow</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>register</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>dynamic</t>
   </si>
   <si>
-    <t>sadsad</t>
-  </si>
-  <si>
-    <t>dsa</t>
+    <t>dummy@gmail.com</t>
+  </si>
+  <si>
+    <t>Queens Paradise, No. 16/1, 1st Floor</t>
+  </si>
+  <si>
+    <t>Curve Road, Shivaji Nagar</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>OnUserName</t>
+  </si>
+  <si>
+    <t>positive assertion</t>
+  </si>
+  <si>
+    <t>RegisterPageTest_002</t>
+  </si>
+  <si>
+    <t>regiser with  duplicate userName</t>
+  </si>
+  <si>
+    <t>lizard</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>this is a bug as it will not throw any error and allows user tto login</t>
+  </si>
+  <si>
+    <t>RegisterPageTest_003</t>
+  </si>
+  <si>
+    <t>regiser with  password mismatch</t>
+  </si>
+  <si>
+    <t>testUser</t>
+  </si>
+  <si>
+    <t>testpass</t>
+  </si>
+  <si>
+    <t>testfail</t>
   </si>
   <si>
     <t>userName</t>
@@ -144,13 +253,187 @@
     <t>passWord</t>
   </si>
   <si>
-    <t>sugning  In</t>
+    <t>Signing Positive flow</t>
   </si>
   <si>
     <t>signIn</t>
   </si>
   <si>
-    <t>lizard</t>
+    <t>SignInPageTest_002</t>
+  </si>
+  <si>
+    <t>Signing without username</t>
+  </si>
+  <si>
+    <t>SignInPageTest_003</t>
+  </si>
+  <si>
+    <t>Signing without password</t>
+  </si>
+  <si>
+    <t>SignInPageTest_004</t>
+  </si>
+  <si>
+    <t>Signing with invalid password</t>
+  </si>
+  <si>
+    <t>adssads</t>
+  </si>
+  <si>
+    <t>SignInPageTest_005</t>
+  </si>
+  <si>
+    <t>Signing with invalid userName</t>
+  </si>
+  <si>
+    <t>typeTrip</t>
+  </si>
+  <si>
+    <t>passengerCount</t>
+  </si>
+  <si>
+    <t>departingMonth</t>
+  </si>
+  <si>
+    <t>departingDay</t>
+  </si>
+  <si>
+    <t>departingDestination</t>
+  </si>
+  <si>
+    <t>arrival</t>
+  </si>
+  <si>
+    <t>arrivalMonth</t>
+  </si>
+  <si>
+    <t>arrivalDay</t>
+  </si>
+  <si>
+    <t>airLinePrefrences</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>passengerOne</t>
+  </si>
+  <si>
+    <t>passengerMealPreference</t>
+  </si>
+  <si>
+    <t>creditCardFirstName</t>
+  </si>
+  <si>
+    <t>creditCardMidName</t>
+  </si>
+  <si>
+    <t>creditCardLastName</t>
+  </si>
+  <si>
+    <t>creditNumber</t>
+  </si>
+  <si>
+    <t>billAddress1</t>
+  </si>
+  <si>
+    <t>billAddress2</t>
+  </si>
+  <si>
+    <t>billCity</t>
+  </si>
+  <si>
+    <t>billState</t>
+  </si>
+  <si>
+    <t>billCountry</t>
+  </si>
+  <si>
+    <t>billZip</t>
+  </si>
+  <si>
+    <t>delAddress1</t>
+  </si>
+  <si>
+    <t>delAddress2</t>
+  </si>
+  <si>
+    <t>delCity</t>
+  </si>
+  <si>
+    <t>delState</t>
+  </si>
+  <si>
+    <t>delCountry</t>
+  </si>
+  <si>
+    <t>delZip</t>
+  </si>
+  <si>
+    <t>fileType</t>
+  </si>
+  <si>
+    <t>DepartingFlight</t>
+  </si>
+  <si>
+    <t>ArrivalFlight</t>
+  </si>
+  <si>
+    <t>Booking flight ticket-Postive flow for one way trip</t>
+  </si>
+  <si>
+    <t>BookFlightTicket</t>
+  </si>
+  <si>
+    <t>oneWay</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Blue Skies Airlines</t>
+  </si>
+  <si>
+    <t>businessServiceClass</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Save as PDF</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Booking flight ticket-Postive flow for round way trip</t>
+  </si>
+  <si>
+    <t>roundTripType</t>
+  </si>
+  <si>
+    <t>Booking flight ticket-Positive flow for multiple passenger</t>
+  </si>
+  <si>
+    <t>Booking flight ticket-Positive flow and asserting on total price</t>
+  </si>
+  <si>
+    <t>Pangea Airlines$362$274$9:17</t>
+  </si>
+  <si>
+    <t>Unified Airlines$633$303$18:44</t>
+  </si>
+  <si>
+    <t>assertOnPrice</t>
   </si>
 </sst>
 </file>
@@ -159,11 +442,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +457,36 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,6 +508,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,8 +516,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,14 +526,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,14 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +555,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +583,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +603,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,39 +636,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,43 +652,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,65 +903,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,11 +931,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,153 +1005,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,19 +1163,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,73 +1536,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="31.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="49.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="82.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="30.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="17" customHeight="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="17" customFormat="1" ht="17" customHeight="1" spans="1:18">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -1241,6 +1622,106 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1252,129 +1733,286 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U$1:XFD$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="24.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="46.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="27.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="25.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="19.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="31.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="33.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="32.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="10.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="18.7142857142857" customWidth="1"/>
     <col min="14" max="14" width="13.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="19" max="19" width="22.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="57.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:20">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="N2">
         <v>560100</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3">
+        <v>560100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4">
+        <v>560100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="dummy@gmail.com"/>
+    <hyperlink ref="I3" r:id="rId1" display="dummy@gmail.com"/>
+    <hyperlink ref="I4" r:id="rId1" display="dummy@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1383,16 +2021,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:XFD$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="26.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="35.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="23.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="24.1428571428571" customWidth="1"/>
@@ -1401,49 +2039,739 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AL5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7142857142857" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="13" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="17" max="18" width="28.1428571428571" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="35.5714285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="38.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="27" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="35" style="1" customWidth="1"/>
+    <col min="29" max="29" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="34" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="35" max="35" width="37.5714285714286" style="1" customWidth="1"/>
+    <col min="36" max="36" width="39.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="25" style="1" customWidth="1"/>
+    <col min="38" max="38" width="28" style="1" customWidth="1"/>
+    <col min="39" max="16383" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="15.7142857142857" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:38">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="1">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>560100</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:36">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="1">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>560100</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:36">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="1">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>560100</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="1">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>560100</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
